--- a/presupuesto.xlsx
+++ b/presupuesto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,6 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Cantidad</t>
         </is>
       </c>
@@ -479,7 +474,6 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -494,8 +488,7 @@
           <t>CGBT 1</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="E3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -512,26 +505,24 @@
           <t>Trabajos de desconexión del cableado que se encuentra sin punteras y/o mal conexionado y realizar el correcto conexionado con punteras.</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+      <c r="E4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1. 2.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BT004</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuadro Genel Taller Madera </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
+          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -539,17 +530,16 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1. 3.</t>
+          <t>1. 2.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cuadro General Taller Metal</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
+          <t xml:space="preserve">Cuadro Genel Taller Madera </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -557,17 +547,16 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1. 4.</t>
+          <t>1. 3.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aula A02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+          <t>Cuadro General Taller Metal</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -575,107 +564,101 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1. 5.</t>
+          <t>1. 4.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A04 Secretaría</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
+          <t>Aula A02</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1. 5.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+          <t>A04 Secretaría</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1. 6.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A06 Aula Informática P.B</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1. 6.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+          <t>A06 Aula Informática P.B</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1. 7.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A07 Cafetería</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1. 8.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>BT002</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Aula A08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
+          <t>Suministro y montaje de obturadores.</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -683,17 +666,16 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1. 9.</t>
+          <t>1. 7.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Departamento Metal</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
+          <t>A07 Cafetería</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -701,53 +683,50 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1. 10.</t>
+          <t>1. 8.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>General Edificio B</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+          <t>Aula A08</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1. 9.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
+          <t>Departamento Metal</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1. 11.</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BT004</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>P.B Edificio C</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
+          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -755,35 +734,33 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1. 12.</t>
+          <t>1. 10.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Taller Madera 2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
+          <t>General Edificio B</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1. 13.</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Taller Madera 3</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -791,35 +768,33 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1. 14.</t>
+          <t>1. 11.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Taller Madera 4</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
+          <t>P.B Edificio C</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1. 15.</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BT002</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Taller Madera 5</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
+          <t>Suministro y montaje de obturadores.</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -827,17 +802,16 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1. 16.</t>
+          <t>1. 12.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Taller Madera 3</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
+          <t>Taller Madera 2</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -845,35 +819,33 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1. 17.</t>
+          <t>1. 13.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Taller Madera 7</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
+          <t>Taller Madera 3</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1. 14.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
+          <t>Taller Madera 4</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -881,17 +853,16 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1. 18.</t>
+          <t>1. 15.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Taller Metal 1</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
+          <t>Taller Madera 5</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -899,17 +870,16 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1. 19.</t>
+          <t>1. 16.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Taller Metal 2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
+          <t>Taller Madera 3</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -917,53 +887,50 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1. 20.</t>
+          <t>1. 17.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Taller Metal 3</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
+          <t>Taller Madera 7</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1. 21.</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Taller Metal 4</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1. 22.</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BT004</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Taller Metal 5</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
+          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -971,17 +938,16 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1. 23.</t>
+          <t>1. 18.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Taller Metal 6</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
+          <t>Taller Metal 1</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -989,17 +955,16 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1. 24.</t>
+          <t>1. 19.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Aula B04</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
+          <t>Taller Metal 2</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1007,17 +972,16 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1. 25.</t>
+          <t>1. 20.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Automatismos</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
+          <t>Taller Metal 3</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1025,17 +989,16 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1. 26.</t>
+          <t>1. 21.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aula 014 </t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
+          <t>Taller Metal 4</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,35 +1006,33 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1. 27.</t>
+          <t>1. 22.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Edificio B P.B</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="n">
+          <t>Taller Metal 5</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1. 23.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="n">
+          <t>Taller Metal 6</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,17 +1040,16 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1. 28.</t>
+          <t>1. 24.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Edificio B Planta 1°</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
+          <t>Aula B04</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,16 +1058,15 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BT001</t>
+          <t>BT002</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
+          <t>Suministro y montaje de obturadores.</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1115,35 +1074,33 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1. 29.</t>
+          <t>1. 25.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Edificio B P2°</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
+          <t>Automatismos</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1. 30.</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BT002</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Edificio C P1°</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
+          <t>Suministro y montaje de obturadores.</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1151,17 +1108,16 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1. 31.</t>
+          <t>1. 26.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Edificio C P2°</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
+          <t xml:space="preserve">Aula 014 </t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1169,107 +1125,101 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1. 32.</t>
+          <t>1. 27.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Edificio C P3°</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
+          <t>Edificio B P.B</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1. 33.</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Edificio C P4°</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1. 34.</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BT002</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>C.D 4.1</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
+          <t>Suministro y montaje de obturadores.</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1. 28.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
+          <t>Edificio B Planta 1°</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1. 35.</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Extracciones Nederman</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1. 29.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="n">
+          <t>Edificio B P2°</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1277,35 +1227,33 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1. 36.</t>
+          <t>1. 30.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Calefacción P1° Edif. B</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="n">
+          <t>Edificio C P1°</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1. 31.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="n">
+          <t>Edificio C P2°</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1313,17 +1261,16 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1. 37.</t>
+          <t>1. 32.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Aula B05</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="n">
+          <t>Edificio C P3°</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1331,89 +1278,84 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1. 38.</t>
+          <t>1. 33.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Calefacción P.B Edif.B</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
+          <t>Edificio C P4°</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1. 34.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="n">
+          <t>C.D 4.1</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1. 39.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Aula B11</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1. 35.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="n">
+          <t>Extracciones Nederman</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1. 40.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Aula B12</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1422,16 +1364,15 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BT001</t>
+          <t>BT004</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
+          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1439,35 +1380,33 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1. 41.</t>
+          <t>1. 36.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cuadro Aula B21</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
+          <t>Calefacción P1° Edif. B</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1. 42.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Aula B23 P2°</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1475,17 +1414,16 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1. 43.</t>
+          <t>1. 37.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Aula B24-2</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
+          <t>Aula B05</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1493,35 +1431,33 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1. 44.</t>
+          <t>1. 38.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Aula B24-1</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="n">
+          <t>Calefacción P.B Edif.B</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1. 45.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Cuadro B25</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1529,17 +1465,16 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1. 46.</t>
+          <t>1. 39.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Calefacción P2°</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="n">
+          <t>Aula B11</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1556,8 +1491,7 @@
           <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
+      <c r="E62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1565,35 +1499,33 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1. 47.</t>
+          <t>1. 40.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cuadro B35</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="n">
+          <t>Aula B12</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1. 48.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cuadro C15</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1601,35 +1533,33 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1. 49.</t>
+          <t>1. 41.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Hall P2° Edif. C</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
+          <t>Cuadro Aula B21</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1. 50.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>BT002</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cuadro C23</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
+          <t>Suministro y montaje de obturadores.</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1637,35 +1567,33 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1. 51.</t>
+          <t>1. 42.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cuadro C24</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="n">
+          <t>Aula B23 P2°</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1. 52.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>BT004</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Cuadro C25</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="n">
+          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,17 +1601,16 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1. 53.</t>
+          <t>1. 43.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cuadro C31</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="n">
+          <t>Aula B24-2</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,17 +1618,16 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1. 54.</t>
+          <t>1. 44.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cuadro C32</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="n">
+          <t>Aula B24-1</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1709,17 +1635,16 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1. 55.</t>
+          <t>1. 45.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Cuadro C33</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="n">
+          <t>Cuadro B25</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,35 +1652,33 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1. 56.</t>
+          <t>1. 46.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cuadro C34</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="n">
+          <t>Calefacción P2°</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1. 57.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Cuadro C36</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,17 +1686,16 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1. 58.</t>
+          <t>1. 47.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cuadro C37</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="n">
+          <t>Cuadro B35</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1781,35 +1703,33 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1. 59.</t>
+          <t>1. 48.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Cuadro C44</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="n">
+          <t>Cuadro C15</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1. 49.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="n">
+          <t>Hall P2° Edif. C</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1817,35 +1737,33 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1. 60.</t>
+          <t>1. 50.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cuadro C45</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="n">
+          <t>Cuadro C23</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1. 51.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="n">
+          <t>Cuadro C24</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1853,35 +1771,33 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1. 61.</t>
+          <t>1. 52.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cuadro C46</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="n">
+          <t>Cuadro C25</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1. 53.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="n">
+          <t>Cuadro C31</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1889,35 +1805,33 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1. 62.</t>
+          <t>1. 54.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Cuadro C47</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="n">
+          <t>Cuadro C32</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1. 55.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="n">
+          <t>Cuadro C33</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1925,35 +1839,33 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1. 63.</t>
+          <t>1. 56.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Cuadro C48</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="n">
+          <t>Cuadro C34</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1. 57.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="n">
+          <t>Cuadro C36</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1961,53 +1873,50 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1. 64.</t>
+          <t>1. 58.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cuadro C49</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="n">
+          <t>Cuadro C37</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1. 59.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="n">
+          <t>Cuadro C44</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>1. 65.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>CQ04 Cuadro C43</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2015,35 +1924,33 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1. 66.</t>
+          <t>1. 60.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CQ01 Cuadro B31</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="n">
+          <t>Cuadro C45</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>1. 67.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>CQ02 Cuadro B32</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="n">
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2051,17 +1958,220 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1. 68.</t>
+          <t>1. 61.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
+          <t>Cuadro C46</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1. 62.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Cuadro C47</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1. 63.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Cuadro C48</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>BT002</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Suministro y montaje de obturadores.</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1. 64.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Cuadro C49</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1. 65.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>CQ04 Cuadro C43</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1. 66.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CQ01 Cuadro B31</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1. 67.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>CQ02 Cuadro B32</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1. 68.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>CQ03 Cuadro B35</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="n">
+      <c r="E102" t="n">
         <v>1</v>
       </c>
     </row>

--- a/presupuesto.xlsx
+++ b/presupuesto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,15 +528,15 @@
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1. 2.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BT009</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuadro Genel Taller Madera </t>
+          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -564,13 +564,13 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1. 4.</t>
+          <t>1. 5.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Aula A02</t>
+          <t>A04 Secretaría</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -579,15 +579,15 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1. 5.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A04 Secretaría</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -596,15 +596,15 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1. 6.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t>A06 Aula Informática P.B</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -613,15 +613,15 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1. 6.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A06 Aula Informática P.B</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -633,12 +633,12 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BT001</t>
+          <t>BT014</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t>Suministro y montaje de obturadores.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -647,15 +647,15 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>BT002</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1. 8.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t>Aula A08</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -666,13 +666,13 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1. 7.</t>
+          <t>1. 9.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A07 Cafetería</t>
+          <t>Departamento Metal</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -681,15 +681,15 @@
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1. 8.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BT004</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aula A08</t>
+          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -700,13 +700,13 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1. 9.</t>
+          <t>1. 10.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Departamento Metal</t>
+          <t>General Edificio B</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -718,12 +718,12 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BT004</t>
+          <t>BT001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -732,15 +732,15 @@
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1. 10.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BT009</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>General Edificio B</t>
+          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -749,15 +749,15 @@
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1. 11.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t>P.B Edificio C</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -766,15 +766,15 @@
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1. 11.</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BT014</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>P.B Edificio C</t>
+          <t>Suministro y montaje de obturadores.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -783,15 +783,15 @@
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>BT002</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1. 17.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t>Taller Madera 7</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -800,15 +800,15 @@
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1. 12.</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Taller Madera 2</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -817,15 +817,15 @@
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1. 13.</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BT004</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Taller Madera 3</t>
+          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -836,13 +836,13 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1. 14.</t>
+          <t>1. 18.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Taller Madera 4</t>
+          <t>Taller Metal 1</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -853,13 +853,13 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1. 15.</t>
+          <t>1. 19.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Taller Madera 5</t>
+          <t>Taller Metal 2</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -870,13 +870,13 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1. 16.</t>
+          <t>1. 20.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Taller Madera 3</t>
+          <t>Taller Metal 3</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -887,13 +887,13 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1. 17.</t>
+          <t>1. 21.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Taller Madera 7</t>
+          <t>Taller Metal 4</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -902,15 +902,15 @@
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1. 23.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t>Taller Metal 6</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -919,15 +919,15 @@
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>BT004</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1. 24.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+          <t>Aula B04</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -936,15 +936,15 @@
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1. 18.</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>BT014</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Taller Metal 1</t>
+          <t>Suministro y montaje de obturadores.</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -955,13 +955,13 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1. 19.</t>
+          <t>1. 25.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Taller Metal 2</t>
+          <t>Automatismos</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -970,15 +970,15 @@
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1. 20.</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BT014</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Taller Metal 3</t>
+          <t>Suministro y montaje de obturadores.</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -989,13 +989,13 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1. 21.</t>
+          <t>1. 26.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Taller Metal 4</t>
+          <t xml:space="preserve">Aula 014 </t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1006,13 +1006,13 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1. 22.</t>
+          <t>1. 27.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Taller Metal 5</t>
+          <t>Edificio B P.B</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1021,15 +1021,15 @@
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1. 23.</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Taller Metal 6</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1038,15 +1038,15 @@
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1. 24.</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BT014</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Aula B04</t>
+          <t>Suministro y montaje de obturadores.</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1058,12 +1058,12 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BT002</t>
+          <t>BT009</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1074,13 +1074,13 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1. 25.</t>
+          <t>1. 28.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Automatismos</t>
+          <t>Edificio B Planta 1°</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1092,12 +1092,12 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BT002</t>
+          <t>BT001</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1106,15 +1106,15 @@
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1. 26.</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BT009</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aula 014 </t>
+          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1125,13 +1125,13 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1. 27.</t>
+          <t>1. 34.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Edificio B P.B</t>
+          <t>C.D 4.1</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1157,15 +1157,15 @@
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>BT002</t>
-        </is>
-      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1. 35.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t>Extracciones Nederman</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1174,15 +1174,15 @@
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1. 28.</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Edificio B Planta 1°</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1194,12 +1194,12 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BT001</t>
+          <t>BT004</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1210,13 +1210,13 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1. 29.</t>
+          <t>1. 36.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Edificio B P2°</t>
+          <t>Calefacción P1° Edif. B</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1225,15 +1225,15 @@
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1. 30.</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Edificio C P1°</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1242,15 +1242,15 @@
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1. 31.</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BT009</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Edificio C P2°</t>
+          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1261,13 +1261,13 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1. 32.</t>
+          <t>1. 37.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Edificio C P3°</t>
+          <t>Aula B05</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1278,13 +1278,13 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1. 33.</t>
+          <t>1. 38.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Edificio C P4°</t>
+          <t>Calefacción P.B Edif.B</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1293,15 +1293,15 @@
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1. 34.</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>C.D 4.1</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1313,12 +1313,12 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BT001</t>
+          <t>BT009</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1329,13 +1329,13 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1. 35.</t>
+          <t>1. 39.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Extracciones Nederman</t>
+          <t>Aula B11</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1361,15 +1361,15 @@
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>BT004</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1. 40.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+          <t>Aula B12</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1378,15 +1378,15 @@
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1. 36.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Calefacción P1° Edif. B</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1395,15 +1395,15 @@
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1. 41.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t>Cuadro Aula B21</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1412,15 +1412,15 @@
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1. 37.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>BT014</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Aula B05</t>
+          <t>Suministro y montaje de obturadores.</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1431,13 +1431,13 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1. 38.</t>
+          <t>1. 42.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Calefacción P.B Edif.B</t>
+          <t>Aula B23 P2°</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1449,12 +1449,12 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BT001</t>
+          <t>BT004</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1465,13 +1465,13 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1. 39.</t>
+          <t>1. 43.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Aula B11</t>
+          <t>Aula B24-2</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1480,15 +1480,15 @@
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1. 46.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t>Calefacción P2°</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1497,15 +1497,15 @@
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1. 40.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Aula B12</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1517,12 +1517,12 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BT001</t>
+          <t>BT009</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1533,13 +1533,13 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1. 41.</t>
+          <t>1. 47.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cuadro Aula B21</t>
+          <t>Cuadro B35</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1548,15 +1548,15 @@
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>BT002</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1. 48.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t>Cuadro C15</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1567,13 +1567,13 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1. 42.</t>
+          <t>1. 51.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Aula B23 P2°</t>
+          <t>Cuadro C24</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -1582,15 +1582,15 @@
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>BT004</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1. 53.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+          <t>Cuadro C31</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -1601,13 +1601,13 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1. 43.</t>
+          <t>1. 55.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Aula B24-2</t>
+          <t>Cuadro C33</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -1618,13 +1618,13 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1. 44.</t>
+          <t>1. 59.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Aula B24-1</t>
+          <t>Cuadro C44</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -1633,15 +1633,15 @@
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1. 45.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Cuadro B25</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -1652,13 +1652,13 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1. 46.</t>
+          <t>1. 60.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Calefacción P2°</t>
+          <t>Cuadro C45</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -1686,13 +1686,13 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1. 47.</t>
+          <t>1. 61.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cuadro B35</t>
+          <t>Cuadro C46</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -1701,15 +1701,15 @@
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>1. 48.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Cuadro C15</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -1720,13 +1720,13 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1. 49.</t>
+          <t>1. 62.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Hall P2° Edif. C</t>
+          <t>Cuadro C47</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -1735,15 +1735,15 @@
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>1. 50.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cuadro C23</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -1754,13 +1754,13 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1. 51.</t>
+          <t>1. 63.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cuadro C24</t>
+          <t>Cuadro C48</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -1769,15 +1769,15 @@
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>1. 52.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cuadro C25</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -1786,15 +1786,15 @@
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>1. 53.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>BT014</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Cuadro C31</t>
+          <t>Suministro y montaje de obturadores.</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -1805,13 +1805,13 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1. 54.</t>
+          <t>1. 64.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Cuadro C32</t>
+          <t>Cuadro C49</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -1820,15 +1820,15 @@
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>1. 55.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Cuadro C33</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -1839,13 +1839,13 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1. 56.</t>
+          <t>1. 66.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Cuadro C34</t>
+          <t>CQ01 Cuadro B31</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -1856,322 +1856,16 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1. 57.</t>
+          <t>1. 67.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Cuadro C36</t>
+          <t>CQ02 Cuadro B32</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>1. 58.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Cuadro C37</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>1. 59.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Cuadro C44</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1. 60.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Cuadro C45</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>1. 61.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Cuadro C46</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>1. 62.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Cuadro C47</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>1. 63.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Cuadro C48</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>BT002</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Suministro y montaje de obturadores.</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>1. 64.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Cuadro C49</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>1. 65.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>CQ04 Cuadro C43</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>1. 66.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>CQ01 Cuadro B31</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1. 67.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>CQ02 Cuadro B32</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>1. 68.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>CQ03 Cuadro B35</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
         <v>1</v>
       </c>
     </row>

--- a/presupuesto.xlsx
+++ b/presupuesto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,13 +479,13 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1. 1.</t>
+          <t>1. 67.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CGBT 1</t>
+          <t xml:space="preserve">Talleres </t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -497,12 +497,12 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BT012</t>
+          <t>BT014</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Trabajos de desconexión del cableado que se encuentra sin punteras y/o mal conexionado y realizar el correcto conexionado con punteras.</t>
+          <t>Suministro y montaje de obturadores.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -511,15 +511,15 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BT004</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1. 68.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+          <t xml:space="preserve">Biblioteca </t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -531,12 +531,12 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BT009</t>
+          <t>BT014</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
+          <t>Suministro y montaje de obturadores.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -547,13 +547,13 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1. 3.</t>
+          <t>1. 69.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cuadro General Taller Metal</t>
+          <t xml:space="preserve"> Taller pinturas </t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -562,15 +562,15 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1. 5.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A04 Secretaría</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -579,15 +579,15 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1. 70.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t xml:space="preserve"> Taller chapa </t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -596,15 +596,15 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1. 6.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A06 Aula Informática P.B</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -616,12 +616,12 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BT001</t>
+          <t>BT014</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t>Suministro y montaje de obturadores.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -630,15 +630,15 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BT014</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1. 71.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t xml:space="preserve"> Taller transmisión</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -649,13 +649,13 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1. 8.</t>
+          <t>1. 72.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Aula A08</t>
+          <t>Taller electricidad y neumatica</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -664,15 +664,15 @@
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1. 9.</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Departamento Metal</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -684,12 +684,12 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BT004</t>
+          <t>BT014</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+          <t>Suministro y montaje de obturadores.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -698,15 +698,15 @@
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1. 10.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BT009</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>General Edificio B</t>
+          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -715,15 +715,15 @@
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1. 73.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t xml:space="preserve">Secretaria </t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -732,15 +732,15 @@
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>BT009</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1. 75.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
+          <t xml:space="preserve"> Ct 10 Taller motores </t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -749,15 +749,15 @@
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1. 11.</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>P.B Edificio C</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -766,15 +766,15 @@
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>BT014</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1. 76.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t xml:space="preserve">Ct 11 taller motores </t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -783,15 +783,15 @@
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1. 17.</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Taller Madera 7</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -800,15 +800,15 @@
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1. 77.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t xml:space="preserve">Ct 12 taller motores </t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -820,12 +820,12 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BT004</t>
+          <t>BT001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -836,13 +836,13 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1. 18.</t>
+          <t>1. 78.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Taller Metal 1</t>
+          <t>Ct 21 taller pintura</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -851,15 +851,15 @@
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1. 19.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Taller Metal 2</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -870,13 +870,13 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1. 20.</t>
+          <t>1. 79.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Taller Metal 3</t>
+          <t>Ct 22 taller pintura</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -885,15 +885,15 @@
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1. 21.</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Taller Metal 4</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -904,13 +904,13 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1. 23.</t>
+          <t>1. 80.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Taller Metal 6</t>
+          <t>Ct 23 taller pintura</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -919,15 +919,15 @@
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1. 24.</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Aula B04</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -936,15 +936,15 @@
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>BT014</t>
-        </is>
-      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1. 81.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t>Ct 24 taller pintura</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -953,15 +953,15 @@
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1. 25.</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Automatismos</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -970,15 +970,15 @@
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>BT014</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1. 82.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t>Ct 25 taller pintura</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -987,15 +987,15 @@
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1. 26.</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aula 014 </t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1006,13 +1006,13 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1. 27.</t>
+          <t>1. 83.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Edificio B P.B</t>
+          <t>Ct 26 taller pintura</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1038,15 +1038,15 @@
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>BT014</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1. 84.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t>Ct 27 taller pintura</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1058,12 +1058,12 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BT009</t>
+          <t>BT001</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1074,13 +1074,13 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1. 28.</t>
+          <t>1. 85.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Edificio B Planta 1°</t>
+          <t>Ct 28 taller pintura</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1106,15 +1106,15 @@
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>BT009</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1. 86.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
+          <t>Ct 29 taller pintura</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1123,15 +1123,15 @@
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1. 34.</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>C.D 4.1</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1140,15 +1140,15 @@
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1. 87.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t xml:space="preserve">Ct 30 Taller chapa </t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1157,15 +1157,15 @@
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1. 35.</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Extracciones Nederman</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1174,15 +1174,15 @@
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1. 88.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t xml:space="preserve">Ct 31 taller chapa </t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1194,12 +1194,12 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BT004</t>
+          <t>BT001</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1210,13 +1210,13 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1. 36.</t>
+          <t>1. 89.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Calefacción P1° Edif. B</t>
+          <t xml:space="preserve">Ct 32 taller chapa </t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1242,15 +1242,15 @@
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>BT009</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1. 90.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
+          <t xml:space="preserve">Ct 33 taller chapa </t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1259,15 +1259,15 @@
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1. 37.</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Aula B05</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1278,13 +1278,13 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1. 38.</t>
+          <t>1. 91.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Calefacción P.B Edif.B</t>
+          <t xml:space="preserve">Ct 34 taller chapa </t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1310,15 +1310,15 @@
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>BT009</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1. 92.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
+          <t xml:space="preserve">Ct 35 taller chapa </t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1327,15 +1327,15 @@
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1. 39.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Aula B11</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1344,15 +1344,15 @@
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1. 93.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t xml:space="preserve">Ct 36 taller chapa </t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1361,15 +1361,15 @@
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1. 40.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Aula B12</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1378,15 +1378,15 @@
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1. 94.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t xml:space="preserve">Ct 37 taller chapa </t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1395,15 +1395,15 @@
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1. 41.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Cuadro Aula B21</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1412,15 +1412,15 @@
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>BT014</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1. 95.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t xml:space="preserve">Ct 38 taller chapa </t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1429,15 +1429,15 @@
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1. 42.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Aula B23 P2°</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1446,15 +1446,15 @@
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>BT004</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1. 96.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Trabajos de identificación y marcado de los circuitos del cuadro que se encuentren sin identificar.</t>
+          <t xml:space="preserve">Ct 39 taller chapa </t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1463,15 +1463,15 @@
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1. 43.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Aula B24-2</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1482,13 +1482,13 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1. 46.</t>
+          <t>1. 97.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Calefacción P2°</t>
+          <t xml:space="preserve"> Ct 40 Taller transmision</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1514,15 +1514,15 @@
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>BT009</t>
-        </is>
-      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1. 98.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Trabajos de puesta a tierra directa del cuadro electrico.</t>
+          <t>Ct 41 Taller transmision</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1531,15 +1531,15 @@
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1. 47.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cuadro B35</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1550,13 +1550,13 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1. 48.</t>
+          <t>1. 99.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cuadro C15</t>
+          <t>Ct 42 Taller transmision</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1565,15 +1565,15 @@
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1. 51.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cuadro C24</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -1584,13 +1584,13 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1. 53.</t>
+          <t>1. 100.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Cuadro C31</t>
+          <t>Ct 43Taller transmision</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -1599,15 +1599,15 @@
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1. 55.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cuadro C33</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -1618,13 +1618,13 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1. 59.</t>
+          <t>1. 101.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cuadro C44</t>
+          <t>Ct 44 Taller transmision</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -1652,13 +1652,13 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1. 60.</t>
+          <t>1. 103.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cuadro C45</t>
+          <t>Ct 46 Taller transmision</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -1686,13 +1686,13 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1. 61.</t>
+          <t>1. 104.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cuadro C46</t>
+          <t>Ct 47 Taller transmision</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -1720,13 +1720,13 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1. 62.</t>
+          <t>1. 105.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cuadro C47</t>
+          <t xml:space="preserve">CS 50 Taller Neumatica </t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -1735,15 +1735,15 @@
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1. 106.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t xml:space="preserve">Ct 51 taller  neumática </t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -1752,15 +1752,15 @@
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>1. 63.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cuadro C48</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -1769,15 +1769,15 @@
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>BT001</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1. 107.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+          <t>Ct 52 taller  neumática</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -1789,12 +1789,12 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BT014</t>
+          <t>BT001</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Suministro y montaje de obturadores.</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -1805,13 +1805,13 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1. 64.</t>
+          <t>1. 108.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Cuadro C49</t>
+          <t>Ct 53 taller  neumática</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -1839,13 +1839,13 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1. 66.</t>
+          <t>1. 109.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CQ01 Cuadro B31</t>
+          <t>Ct 54 taller  neumática</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -1854,18 +1854,86 @@
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>1. 67.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>CQ02 Cuadro B32</t>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
         </is>
       </c>
       <c r="E84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1. 110.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Ct 55 taller  neumática</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1. 111.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Ct 56 taller  neumática</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>BT001</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Suministro y colocación de placa de señalización de riesgo eléctrico en el cuadro</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
         <v>1</v>
       </c>
     </row>
